--- a/Mad Libs Sections.xlsx
+++ b/Mad Libs Sections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Amaan C++\TOA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Git\TOA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD691838-217F-4130-B1DB-3C3EC9B939E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0838BE-3B55-4C77-8283-8816280F0493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Expertise</t>
   </si>
@@ -88,19 +88,46 @@
   </si>
   <si>
     <t>Person</t>
+  </si>
+  <si>
+    <t>Sir Adeel's subject matter expertise:</t>
+  </si>
+  <si>
+    <t>Sir Adeel's preparation and delivery of lessons:</t>
+  </si>
+  <si>
+    <t>classes are always very</t>
+  </si>
+  <si>
+    <t>well-prepared and informative</t>
+  </si>
+  <si>
+    <t>lessons are always</t>
+  </si>
+  <si>
+    <t>approach to teaching is</t>
+  </si>
+  <si>
+    <t>teaching is always</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,20 +435,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="39.77734375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -432,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -446,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -457,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -468,34 +504,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
